--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Anxa1-Egfr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Anxa1-Egfr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.37690429567373</v>
+        <v>9.869595666666667</v>
       </c>
       <c r="H2">
-        <v>5.37690429567373</v>
+        <v>29.608787</v>
       </c>
       <c r="I2">
-        <v>0.008956296531785934</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="J2">
-        <v>0.008956296531785934</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N2">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O2">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P2">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q2">
-        <v>2.93531667863489</v>
+        <v>6.895235098986001</v>
       </c>
       <c r="R2">
-        <v>2.93531667863489</v>
+        <v>62.057115890874</v>
       </c>
       <c r="S2">
-        <v>7.488234742887136E-05</v>
+        <v>0.0001573750712253464</v>
       </c>
       <c r="T2">
-        <v>7.488234742887136E-05</v>
+        <v>0.0001573750712253464</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.37690429567373</v>
+        <v>9.869595666666667</v>
       </c>
       <c r="H3">
-        <v>5.37690429567373</v>
+        <v>29.608787</v>
       </c>
       <c r="I3">
-        <v>0.008956296531785934</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="J3">
-        <v>0.008956296531785934</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N3">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O3">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P3">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q3">
-        <v>245.5243079547721</v>
+        <v>453.1759438736242</v>
       </c>
       <c r="R3">
-        <v>245.5243079547721</v>
+        <v>4078.583494862617</v>
       </c>
       <c r="S3">
-        <v>0.006263527429365084</v>
+        <v>0.01034317110597333</v>
       </c>
       <c r="T3">
-        <v>0.006263527429365084</v>
+        <v>0.01034317110597333</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.37690429567373</v>
+        <v>9.869595666666667</v>
       </c>
       <c r="H4">
-        <v>5.37690429567373</v>
+        <v>29.608787</v>
       </c>
       <c r="I4">
-        <v>0.008956296531785934</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="J4">
-        <v>0.008956296531785934</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N4">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O4">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P4">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q4">
-        <v>0.9055455229613946</v>
+        <v>2.300270473512556</v>
       </c>
       <c r="R4">
-        <v>0.9055455229613946</v>
+        <v>20.702434261613</v>
       </c>
       <c r="S4">
-        <v>2.310121253921735E-05</v>
+        <v>5.250078125107517E-05</v>
       </c>
       <c r="T4">
-        <v>2.310121253921735E-05</v>
+        <v>5.250078125107517E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.37690429567373</v>
+        <v>9.869595666666667</v>
       </c>
       <c r="H5">
-        <v>5.37690429567373</v>
+        <v>29.608787</v>
       </c>
       <c r="I5">
-        <v>0.008956296531785934</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="J5">
-        <v>0.008956296531785934</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N5">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O5">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P5">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q5">
-        <v>2.249081540753061</v>
+        <v>4.324540994072001</v>
       </c>
       <c r="R5">
-        <v>2.249081540753061</v>
+        <v>38.920868946648</v>
       </c>
       <c r="S5">
-        <v>5.737592354391434E-05</v>
+        <v>9.870221061194785E-05</v>
       </c>
       <c r="T5">
-        <v>5.737592354391434E-05</v>
+        <v>9.870221061194784E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.37690429567373</v>
+        <v>9.869595666666667</v>
       </c>
       <c r="H6">
-        <v>5.37690429567373</v>
+        <v>29.608787</v>
       </c>
       <c r="I6">
-        <v>0.008956296531785934</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="J6">
-        <v>0.008956296531785934</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N6">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O6">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P6">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q6">
-        <v>13.33279467399484</v>
+        <v>25.06795052702778</v>
       </c>
       <c r="R6">
-        <v>13.33279467399484</v>
+        <v>225.61155474325</v>
       </c>
       <c r="S6">
-        <v>0.0003401305795190053</v>
+        <v>0.0005721444509186656</v>
       </c>
       <c r="T6">
-        <v>0.0003401305795190053</v>
+        <v>0.0005721444509186655</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.37690429567373</v>
+        <v>9.869595666666667</v>
       </c>
       <c r="H7">
-        <v>5.37690429567373</v>
+        <v>29.608787</v>
       </c>
       <c r="I7">
-        <v>0.008956296531785934</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="J7">
-        <v>0.008956296531785934</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N7">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O7">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P7">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q7">
-        <v>86.13124499151483</v>
+        <v>195.2860015174192</v>
       </c>
       <c r="R7">
-        <v>86.13124499151483</v>
+        <v>1757.574013656773</v>
       </c>
       <c r="S7">
-        <v>0.002197279039389841</v>
+        <v>0.004457157436537082</v>
       </c>
       <c r="T7">
-        <v>0.002197279039389841</v>
+        <v>0.004457157436537081</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>243.653187613367</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H8">
-        <v>243.653187613367</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I8">
-        <v>0.4058525276218909</v>
+        <v>0.3883343047606652</v>
       </c>
       <c r="J8">
-        <v>0.4058525276218909</v>
+        <v>0.3883343047606652</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N8">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O8">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P8">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q8">
-        <v>133.0132035229869</v>
+        <v>170.75745233373</v>
       </c>
       <c r="R8">
-        <v>133.0132035229869</v>
+        <v>1536.81707100357</v>
       </c>
       <c r="S8">
-        <v>0.00339327643634951</v>
+        <v>0.003897324143049355</v>
       </c>
       <c r="T8">
-        <v>0.00339327643634951</v>
+        <v>0.003897324143049355</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>243.653187613367</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H9">
-        <v>243.653187613367</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I9">
-        <v>0.4058525276218909</v>
+        <v>0.3883343047606652</v>
       </c>
       <c r="J9">
-        <v>0.4058525276218909</v>
+        <v>0.3883343047606652</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N9">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O9">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P9">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q9">
-        <v>11125.87782488146</v>
+        <v>11222.70213037019</v>
       </c>
       <c r="R9">
-        <v>11125.87782488146</v>
+        <v>101004.3191733317</v>
       </c>
       <c r="S9">
-        <v>0.2838303120062018</v>
+        <v>0.2561440649598133</v>
       </c>
       <c r="T9">
-        <v>0.2838303120062018</v>
+        <v>0.2561440649598133</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>243.653187613367</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H10">
-        <v>243.653187613367</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I10">
-        <v>0.4058525276218909</v>
+        <v>0.3883343047606652</v>
       </c>
       <c r="J10">
-        <v>0.4058525276218909</v>
+        <v>0.3883343047606652</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N10">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O10">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P10">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q10">
-        <v>41.03458813207516</v>
+        <v>56.96518249149612</v>
       </c>
       <c r="R10">
-        <v>41.03458813207516</v>
+        <v>512.6866424234651</v>
       </c>
       <c r="S10">
-        <v>0.00104682615932797</v>
+        <v>0.00130015866366651</v>
       </c>
       <c r="T10">
-        <v>0.00104682615932797</v>
+        <v>0.00130015866366651</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>243.653187613367</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H11">
-        <v>243.653187613367</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I11">
-        <v>0.4058525276218909</v>
+        <v>0.3883343047606652</v>
       </c>
       <c r="J11">
-        <v>0.4058525276218909</v>
+        <v>0.3883343047606652</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N11">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O11">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P11">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q11">
-        <v>101.9166152999571</v>
+        <v>107.09534802796</v>
       </c>
       <c r="R11">
-        <v>101.9166152999571</v>
+        <v>963.8581322516402</v>
       </c>
       <c r="S11">
-        <v>0.002599976844479781</v>
+        <v>0.002444316659526519</v>
       </c>
       <c r="T11">
-        <v>0.002599976844479781</v>
+        <v>0.002444316659526519</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>243.653187613367</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H12">
-        <v>243.653187613367</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I12">
-        <v>0.4058525276218909</v>
+        <v>0.3883343047606652</v>
       </c>
       <c r="J12">
-        <v>0.4058525276218909</v>
+        <v>0.3883343047606652</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N12">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O12">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P12">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q12">
-        <v>604.1725393414903</v>
+        <v>620.7967249518056</v>
       </c>
       <c r="R12">
-        <v>604.1725393414903</v>
+        <v>5587.170524566251</v>
       </c>
       <c r="S12">
-        <v>0.01541293936945614</v>
+        <v>0.01416890467159262</v>
       </c>
       <c r="T12">
-        <v>0.01541293936945614</v>
+        <v>0.01416890467159262</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>243.653187613367</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H13">
-        <v>243.653187613367</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I13">
-        <v>0.4058525276218909</v>
+        <v>0.3883343047606652</v>
       </c>
       <c r="J13">
-        <v>0.4058525276218909</v>
+        <v>0.3883343047606652</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N13">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O13">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P13">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q13">
-        <v>3903.017655005679</v>
+        <v>4836.171590503031</v>
       </c>
       <c r="R13">
-        <v>3903.017655005679</v>
+        <v>43525.54431452727</v>
       </c>
       <c r="S13">
-        <v>0.09956919680607576</v>
+        <v>0.1103795356630169</v>
       </c>
       <c r="T13">
-        <v>0.09956919680607576</v>
+        <v>0.1103795356630169</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>77.1864861794303</v>
+        <v>91.68861033333333</v>
       </c>
       <c r="H14">
-        <v>77.1864861794303</v>
+        <v>275.065831</v>
       </c>
       <c r="I14">
-        <v>0.1285693440788597</v>
+        <v>0.1456770701148412</v>
       </c>
       <c r="J14">
-        <v>0.1285693440788597</v>
+        <v>0.1456770701148413</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N14">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O14">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P14">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q14">
-        <v>42.13703048983025</v>
+        <v>64.05678059161801</v>
       </c>
       <c r="R14">
-        <v>42.13703048983025</v>
+        <v>576.5110253245621</v>
       </c>
       <c r="S14">
-        <v>0.001074950372382935</v>
+        <v>0.001462015473490491</v>
       </c>
       <c r="T14">
-        <v>0.001074950372382935</v>
+        <v>0.001462015473490491</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>77.1864861794303</v>
+        <v>91.68861033333333</v>
       </c>
       <c r="H15">
-        <v>77.1864861794303</v>
+        <v>275.065831</v>
       </c>
       <c r="I15">
-        <v>0.1285693440788597</v>
+        <v>0.1456770701148412</v>
       </c>
       <c r="J15">
-        <v>0.1285693440788597</v>
+        <v>0.1456770701148413</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N15">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O15">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P15">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q15">
-        <v>3524.548245709591</v>
+        <v>4210.007576156625</v>
       </c>
       <c r="R15">
-        <v>3524.548245709591</v>
+        <v>37890.06818540963</v>
       </c>
       <c r="S15">
-        <v>0.08991413028313774</v>
+        <v>0.09608812935969797</v>
       </c>
       <c r="T15">
-        <v>0.08991413028313774</v>
+        <v>0.09608812935969799</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>77.1864861794303</v>
+        <v>91.68861033333333</v>
       </c>
       <c r="H16">
-        <v>77.1864861794303</v>
+        <v>275.065831</v>
       </c>
       <c r="I16">
-        <v>0.1285693440788597</v>
+        <v>0.1456770701148412</v>
       </c>
       <c r="J16">
-        <v>0.1285693440788597</v>
+        <v>0.1456770701148413</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N16">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O16">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P16">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q16">
-        <v>12.99927860890942</v>
+        <v>21.36952821881878</v>
       </c>
       <c r="R16">
-        <v>12.99927860890942</v>
+        <v>192.325753969369</v>
       </c>
       <c r="S16">
-        <v>0.0003316223098523568</v>
+        <v>0.0004877326120443978</v>
       </c>
       <c r="T16">
-        <v>0.0003316223098523568</v>
+        <v>0.0004877326120443979</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>77.1864861794303</v>
+        <v>91.68861033333333</v>
       </c>
       <c r="H17">
-        <v>77.1864861794303</v>
+        <v>275.065831</v>
       </c>
       <c r="I17">
-        <v>0.1285693440788597</v>
+        <v>0.1456770701148412</v>
       </c>
       <c r="J17">
-        <v>0.1285693440788597</v>
+        <v>0.1456770701148413</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N17">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O17">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P17">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q17">
-        <v>32.28599426651985</v>
+        <v>40.175015012536</v>
       </c>
       <c r="R17">
-        <v>32.28599426651985</v>
+        <v>361.5751351128241</v>
       </c>
       <c r="S17">
-        <v>0.0008236423202134532</v>
+        <v>0.0009169442025271906</v>
       </c>
       <c r="T17">
-        <v>0.0008236423202134532</v>
+        <v>0.0009169442025271908</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>77.1864861794303</v>
+        <v>91.68861033333333</v>
       </c>
       <c r="H18">
-        <v>77.1864861794303</v>
+        <v>275.065831</v>
       </c>
       <c r="I18">
-        <v>0.1285693440788597</v>
+        <v>0.1456770701148412</v>
       </c>
       <c r="J18">
-        <v>0.1285693440788597</v>
+        <v>0.1456770701148413</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N18">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O18">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P18">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q18">
-        <v>191.3948092149436</v>
+        <v>232.8814295291389</v>
       </c>
       <c r="R18">
-        <v>191.3948092149436</v>
+        <v>2095.93286576225</v>
       </c>
       <c r="S18">
-        <v>0.004882639309085144</v>
+        <v>0.005315225809283623</v>
       </c>
       <c r="T18">
-        <v>0.004882639309085144</v>
+        <v>0.005315225809283624</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>77.1864861794303</v>
+        <v>91.68861033333333</v>
       </c>
       <c r="H19">
-        <v>77.1864861794303</v>
+        <v>275.065831</v>
       </c>
       <c r="I19">
-        <v>0.1285693440788597</v>
+        <v>0.1456770701148412</v>
       </c>
       <c r="J19">
-        <v>0.1285693440788597</v>
+        <v>0.1456770701148413</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N19">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O19">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P19">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q19">
-        <v>1236.430441305012</v>
+        <v>1814.208271688272</v>
       </c>
       <c r="R19">
-        <v>1236.430441305012</v>
+        <v>16327.87444519445</v>
       </c>
       <c r="S19">
-        <v>0.03154235948418807</v>
+        <v>0.04140702265779756</v>
       </c>
       <c r="T19">
-        <v>0.03154235948418807</v>
+        <v>0.04140702265779758</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>79.2784374658949</v>
+        <v>80.92074566666668</v>
       </c>
       <c r="H20">
-        <v>79.2784374658949</v>
+        <v>242.762237</v>
       </c>
       <c r="I20">
-        <v>0.1320539022969971</v>
+        <v>0.1285688276588767</v>
       </c>
       <c r="J20">
-        <v>0.1320539022969971</v>
+        <v>0.1285688276588767</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N20">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O20">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P20">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q20">
-        <v>43.2790518397345</v>
+        <v>56.53398422808601</v>
       </c>
       <c r="R20">
-        <v>43.2790518397345</v>
+        <v>508.8058580527741</v>
       </c>
       <c r="S20">
-        <v>0.001104084278144166</v>
+        <v>0.00129031710548289</v>
       </c>
       <c r="T20">
-        <v>0.001104084278144166</v>
+        <v>0.00129031710548289</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>79.2784374658949</v>
+        <v>80.92074566666668</v>
       </c>
       <c r="H21">
-        <v>79.2784374658949</v>
+        <v>242.762237</v>
       </c>
       <c r="I21">
-        <v>0.1320539022969971</v>
+        <v>0.1285688276588767</v>
       </c>
       <c r="J21">
-        <v>0.1320539022969971</v>
+        <v>0.1285688276588767</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N21">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O21">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P21">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q21">
-        <v>3620.072522066449</v>
+        <v>3715.586386208508</v>
       </c>
       <c r="R21">
-        <v>3620.072522066449</v>
+        <v>33440.27747587657</v>
       </c>
       <c r="S21">
-        <v>0.09235103329333438</v>
+        <v>0.08480358737289206</v>
       </c>
       <c r="T21">
-        <v>0.09235103329333438</v>
+        <v>0.08480358737289206</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>79.2784374658949</v>
+        <v>80.92074566666668</v>
       </c>
       <c r="H22">
-        <v>79.2784374658949</v>
+        <v>242.762237</v>
       </c>
       <c r="I22">
-        <v>0.1320539022969971</v>
+        <v>0.1285688276588767</v>
       </c>
       <c r="J22">
-        <v>0.1320539022969971</v>
+        <v>0.1285688276588767</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N22">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O22">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P22">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q22">
-        <v>13.3515923228127</v>
+        <v>18.85990148312922</v>
       </c>
       <c r="R22">
-        <v>13.3515923228127</v>
+        <v>169.739113348163</v>
       </c>
       <c r="S22">
-        <v>0.0003406101230312508</v>
+        <v>0.0004304535373488508</v>
       </c>
       <c r="T22">
-        <v>0.0003406101230312508</v>
+        <v>0.0004304535373488508</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>79.2784374658949</v>
+        <v>80.92074566666668</v>
       </c>
       <c r="H23">
-        <v>79.2784374658949</v>
+        <v>242.762237</v>
       </c>
       <c r="I23">
-        <v>0.1320539022969971</v>
+        <v>0.1285688276588767</v>
       </c>
       <c r="J23">
-        <v>0.1320539022969971</v>
+        <v>0.1285688276588767</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N23">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O23">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P23">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q23">
-        <v>33.1610273271469</v>
+        <v>35.45688128727201</v>
       </c>
       <c r="R23">
-        <v>33.1610273271469</v>
+        <v>319.1119315854481</v>
       </c>
       <c r="S23">
-        <v>0.000845965134693592</v>
+        <v>0.0008092587327201751</v>
       </c>
       <c r="T23">
-        <v>0.000845965134693592</v>
+        <v>0.0008092587327201752</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>79.2784374658949</v>
+        <v>80.92074566666668</v>
       </c>
       <c r="H24">
-        <v>79.2784374658949</v>
+        <v>242.762237</v>
       </c>
       <c r="I24">
-        <v>0.1320539022969971</v>
+        <v>0.1285688276588767</v>
       </c>
       <c r="J24">
-        <v>0.1320539022969971</v>
+        <v>0.1285688276588767</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N24">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O24">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P24">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q24">
-        <v>196.5820983011328</v>
+        <v>205.5319505978611</v>
       </c>
       <c r="R24">
-        <v>196.5820983011328</v>
+        <v>1849.78755538075</v>
       </c>
       <c r="S24">
-        <v>0.005014971328452354</v>
+        <v>0.004691008341278957</v>
       </c>
       <c r="T24">
-        <v>0.005014971328452354</v>
+        <v>0.004691008341278957</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>79.2784374658949</v>
+        <v>80.92074566666668</v>
       </c>
       <c r="H25">
-        <v>79.2784374658949</v>
+        <v>242.762237</v>
       </c>
       <c r="I25">
-        <v>0.1320539022969971</v>
+        <v>0.1285688276588767</v>
       </c>
       <c r="J25">
-        <v>0.1320539022969971</v>
+        <v>0.1285688276588767</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N25">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O25">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P25">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q25">
-        <v>1269.940870142247</v>
+        <v>1601.148557121036</v>
       </c>
       <c r="R25">
-        <v>1269.940870142247</v>
+        <v>14410.33701408933</v>
       </c>
       <c r="S25">
-        <v>0.03239723813934132</v>
+        <v>0.03654420256915379</v>
       </c>
       <c r="T25">
-        <v>0.03239723813934132</v>
+        <v>0.0365442025691538</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>126.847645656103</v>
+        <v>129.147616</v>
       </c>
       <c r="H26">
-        <v>126.847645656103</v>
+        <v>387.442848</v>
       </c>
       <c r="I26">
-        <v>0.211289817780291</v>
+        <v>0.2051928395773366</v>
       </c>
       <c r="J26">
-        <v>0.211289817780291</v>
+        <v>0.2051928395773366</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N26">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O26">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P26">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q26">
-        <v>69.24765431281932</v>
+        <v>90.22691555654401</v>
       </c>
       <c r="R26">
-        <v>69.24765431281932</v>
+        <v>812.042240008896</v>
       </c>
       <c r="S26">
-        <v>0.001766564727625393</v>
+        <v>0.002059315898342983</v>
       </c>
       <c r="T26">
-        <v>0.001766564727625393</v>
+        <v>0.002059315898342983</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>126.847645656103</v>
+        <v>129.147616</v>
       </c>
       <c r="H27">
-        <v>126.847645656103</v>
+        <v>387.442848</v>
       </c>
       <c r="I27">
-        <v>0.211289817780291</v>
+        <v>0.2051928395773366</v>
       </c>
       <c r="J27">
-        <v>0.211289817780291</v>
+        <v>0.2051928395773366</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N27">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O27">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P27">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q27">
-        <v>5792.214014384733</v>
+        <v>5929.98890293902</v>
       </c>
       <c r="R27">
-        <v>5792.214014384733</v>
+        <v>53369.90012645118</v>
       </c>
       <c r="S27">
-        <v>0.1477641527963686</v>
+        <v>0.1353445404787983</v>
       </c>
       <c r="T27">
-        <v>0.1477641527963686</v>
+        <v>0.1353445404787983</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>126.847645656103</v>
+        <v>129.147616</v>
       </c>
       <c r="H28">
-        <v>126.847645656103</v>
+        <v>387.442848</v>
       </c>
       <c r="I28">
-        <v>0.211289817780291</v>
+        <v>0.2051928395773366</v>
       </c>
       <c r="J28">
-        <v>0.211289817780291</v>
+        <v>0.2051928395773366</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N28">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O28">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P28">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q28">
-        <v>21.36290908404287</v>
+        <v>30.09996131986134</v>
       </c>
       <c r="R28">
-        <v>21.36290908404287</v>
+        <v>270.899651878752</v>
       </c>
       <c r="S28">
-        <v>0.00054498541563381</v>
+        <v>0.0006869937701311967</v>
       </c>
       <c r="T28">
-        <v>0.00054498541563381</v>
+        <v>0.0006869937701311967</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>126.847645656103</v>
+        <v>129.147616</v>
       </c>
       <c r="H29">
-        <v>126.847645656103</v>
+        <v>387.442848</v>
       </c>
       <c r="I29">
-        <v>0.211289817780291</v>
+        <v>0.2051928395773366</v>
       </c>
       <c r="J29">
-        <v>0.211289817780291</v>
+        <v>0.2051928395773366</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N29">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O29">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P29">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q29">
-        <v>53.05854124327116</v>
+        <v>56.58835260748801</v>
       </c>
       <c r="R29">
-        <v>53.05854124327116</v>
+        <v>509.295173467392</v>
       </c>
       <c r="S29">
-        <v>0.001353567111980401</v>
+        <v>0.001291557995381199</v>
       </c>
       <c r="T29">
-        <v>0.001353567111980401</v>
+        <v>0.001291557995381199</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>126.847645656103</v>
+        <v>129.147616</v>
       </c>
       <c r="H30">
-        <v>126.847645656103</v>
+        <v>387.442848</v>
       </c>
       <c r="I30">
-        <v>0.211289817780291</v>
+        <v>0.2051928395773366</v>
       </c>
       <c r="J30">
-        <v>0.211289817780291</v>
+        <v>0.2051928395773366</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N30">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O30">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P30">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q30">
-        <v>314.5366778748963</v>
+        <v>328.0241823386667</v>
       </c>
       <c r="R30">
-        <v>314.5366778748963</v>
+        <v>2952.217641048</v>
       </c>
       <c r="S30">
-        <v>0.00802408985823797</v>
+        <v>0.007486739511865987</v>
       </c>
       <c r="T30">
-        <v>0.00802408985823797</v>
+        <v>0.007486739511865986</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>126.847645656103</v>
+        <v>129.147616</v>
       </c>
       <c r="H31">
-        <v>126.847645656103</v>
+        <v>387.442848</v>
       </c>
       <c r="I31">
-        <v>0.211289817780291</v>
+        <v>0.2051928395773366</v>
       </c>
       <c r="J31">
-        <v>0.211289817780291</v>
+        <v>0.2051928395773366</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N31">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O31">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P31">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q31">
-        <v>2031.939763814169</v>
+        <v>2555.395619632821</v>
       </c>
       <c r="R31">
-        <v>2031.939763814169</v>
+        <v>22998.56057669539</v>
       </c>
       <c r="S31">
-        <v>0.0518364578704448</v>
+        <v>0.0583236919228169</v>
       </c>
       <c r="T31">
-        <v>0.0518364578704448</v>
+        <v>0.0583236919228169</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>68.00640903202169</v>
+        <v>73.35356366666667</v>
       </c>
       <c r="H32">
-        <v>68.00640903202169</v>
+        <v>220.060691</v>
       </c>
       <c r="I32">
-        <v>0.1132781116901752</v>
+        <v>0.1165459068317628</v>
       </c>
       <c r="J32">
-        <v>0.1132781116901752</v>
+        <v>0.1165459068317628</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N32">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O32">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P32">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q32">
-        <v>37.12551604207922</v>
+        <v>51.24729359869801</v>
       </c>
       <c r="R32">
-        <v>37.12551604207922</v>
+        <v>461.2256423882821</v>
       </c>
       <c r="S32">
-        <v>0.0009471025088959098</v>
+        <v>0.001169655039229535</v>
       </c>
       <c r="T32">
-        <v>0.0009471025088959098</v>
+        <v>0.001169655039229535</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>68.00640903202169</v>
+        <v>73.35356366666667</v>
       </c>
       <c r="H33">
-        <v>68.00640903202169</v>
+        <v>220.060691</v>
       </c>
       <c r="I33">
-        <v>0.1132781116901752</v>
+        <v>0.1165459068317628</v>
       </c>
       <c r="J33">
-        <v>0.1132781116901752</v>
+        <v>0.1165459068317628</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N33">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O33">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P33">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q33">
-        <v>3105.360556168151</v>
+        <v>3368.128905564654</v>
       </c>
       <c r="R33">
-        <v>3105.360556168151</v>
+        <v>30313.16015008189</v>
       </c>
       <c r="S33">
-        <v>0.07922030687572731</v>
+        <v>0.07687330726218963</v>
       </c>
       <c r="T33">
-        <v>0.07922030687572731</v>
+        <v>0.07687330726218965</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>68.00640903202169</v>
+        <v>73.35356366666667</v>
       </c>
       <c r="H34">
-        <v>68.00640903202169</v>
+        <v>220.060691</v>
       </c>
       <c r="I34">
-        <v>0.1132781116901752</v>
+        <v>0.1165459068317628</v>
       </c>
       <c r="J34">
-        <v>0.1132781116901752</v>
+        <v>0.1165459068317628</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N34">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O34">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P34">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q34">
-        <v>11.45322584245703</v>
+        <v>17.09624612072323</v>
       </c>
       <c r="R34">
-        <v>11.45322584245703</v>
+        <v>153.866215086509</v>
       </c>
       <c r="S34">
-        <v>0.0002921812296978651</v>
+        <v>0.0003902003212813631</v>
       </c>
       <c r="T34">
-        <v>0.0002921812296978651</v>
+        <v>0.0003902003212813631</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>68.00640903202169</v>
+        <v>73.35356366666667</v>
       </c>
       <c r="H35">
-        <v>68.00640903202169</v>
+        <v>220.060691</v>
       </c>
       <c r="I35">
-        <v>0.1132781116901752</v>
+        <v>0.1165459068317628</v>
       </c>
       <c r="J35">
-        <v>0.1132781116901752</v>
+        <v>0.1165459068317628</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N35">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O35">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P35">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q35">
-        <v>28.44610035739111</v>
+        <v>32.14118428469601</v>
       </c>
       <c r="R35">
-        <v>28.44610035739111</v>
+        <v>289.270658562264</v>
       </c>
       <c r="S35">
-        <v>0.0007256834621841689</v>
+        <v>0.0007335821177170404</v>
       </c>
       <c r="T35">
-        <v>0.0007256834621841689</v>
+        <v>0.0007335821177170405</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>68.00640903202169</v>
+        <v>73.35356366666667</v>
       </c>
       <c r="H36">
-        <v>68.00640903202169</v>
+        <v>220.060691</v>
       </c>
       <c r="I36">
-        <v>0.1132781116901752</v>
+        <v>0.1165459068317628</v>
       </c>
       <c r="J36">
-        <v>0.1132781116901752</v>
+        <v>0.1165459068317628</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N36">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O36">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P36">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q36">
-        <v>168.6315095601011</v>
+        <v>186.3119389163611</v>
       </c>
       <c r="R36">
-        <v>168.6315095601011</v>
+        <v>1676.80745024725</v>
       </c>
       <c r="S36">
-        <v>0.004301928775946293</v>
+        <v>0.004252335741446522</v>
       </c>
       <c r="T36">
-        <v>0.004301928775946293</v>
+        <v>0.004252335741446522</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>68.00640903202169</v>
+        <v>73.35356366666667</v>
       </c>
       <c r="H37">
-        <v>68.00640903202169</v>
+        <v>220.060691</v>
       </c>
       <c r="I37">
-        <v>0.1132781116901752</v>
+        <v>0.1165459068317628</v>
       </c>
       <c r="J37">
-        <v>0.1132781116901752</v>
+        <v>0.1165459068317628</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N37">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O37">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P37">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q37">
-        <v>1089.377149978877</v>
+        <v>1451.41955449071</v>
       </c>
       <c r="R37">
-        <v>1089.377149978877</v>
+        <v>13062.77599041639</v>
       </c>
       <c r="S37">
-        <v>0.02779090883772364</v>
+        <v>0.03312682634989873</v>
       </c>
       <c r="T37">
-        <v>0.02779090883772364</v>
+        <v>0.03312682634989873</v>
       </c>
     </row>
   </sheetData>
